--- a/Documents/Dime/DIME_ENEM_ESCOLA.xlsx
+++ b/Documents/Dime/DIME_ENEM_ESCOLA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNISG\ProjetoEnem\Enem\Documents\Dime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A2C770-DB06-4614-99B0-43C21CAFB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E79C9-3040-432C-8343-0A9B6EBA79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A87E2E4F-709B-4B27-99CB-EB81E9249D86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{A87E2E4F-709B-4B27-99CB-EB81E9249D86}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP_DEPENDENCIA_ADM_ESC   " sheetId="1" r:id="rId1"/>
+    <sheet name="TP_DEPENDENCIA_ADM_ESC" sheetId="1" r:id="rId1"/>
     <sheet name="TP_LOCALIZACAO_ESC" sheetId="2" r:id="rId2"/>
-    <sheet name="TP_SIT_FUNC_ESC   " sheetId="3" r:id="rId3"/>
+    <sheet name="TP_SIT_FUNC_ESC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA940FF-AD3B-4DBA-8C8B-D94BD6A5EF55}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -607,9 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34B8B4-010C-4A44-AFBE-759CAE81586E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documents/Dime/DIME_ENEM_ESCOLA.xlsx
+++ b/Documents/Dime/DIME_ENEM_ESCOLA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNISG\ProjetoEnem\Enem\Documents\Dime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E79C9-3040-432C-8343-0A9B6EBA79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076FFBF-EF9C-4CA2-9C42-337562B68E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{A87E2E4F-709B-4B27-99CB-EB81E9249D86}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP_DEPENDENCIA_ADM_ESC" sheetId="1" r:id="rId1"/>
-    <sheet name="TP_LOCALIZACAO_ESC" sheetId="2" r:id="rId2"/>
-    <sheet name="TP_SIT_FUNC_ESC" sheetId="3" r:id="rId3"/>
+    <sheet name="DIME_DEPENDENCIA_ADM_ESC" sheetId="1" r:id="rId1"/>
+    <sheet name="DIME_LOCALIZACAO_ESC" sheetId="2" r:id="rId2"/>
+    <sheet name="DIME_SIT_FUNC_ESC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
